--- a/artfynd/A 3146-2023.xlsx
+++ b/artfynd/A 3146-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106194537</v>
+        <v>106194518</v>
       </c>
       <c r="B3" t="n">
-        <v>56411</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,43 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100049</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540471.4570663463</v>
+        <v>540220.9713190208</v>
       </c>
       <c r="R3" t="n">
-        <v>7198931.455751203</v>
+        <v>7199288.915839214</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -872,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -882,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106194518</v>
+        <v>106194523</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -921,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540220.9713190208</v>
+        <v>540266.2807869902</v>
       </c>
       <c r="R4" t="n">
-        <v>7199288.915839214</v>
+        <v>7199332.822708054</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -984,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -994,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106194523</v>
+        <v>106194526</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540266.2807869902</v>
+        <v>540458.3903157733</v>
       </c>
       <c r="R5" t="n">
-        <v>7199332.822708054</v>
+        <v>7199332.018118081</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1096,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1106,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1133,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106194526</v>
+        <v>106194569</v>
       </c>
       <c r="B6" t="n">
-        <v>78596</v>
+        <v>76487</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>1794</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Rödskaftad svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenothecopsis haematopus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540458.3903157733</v>
+        <v>540458.4132686888</v>
       </c>
       <c r="R6" t="n">
-        <v>7199332.018118081</v>
+        <v>7199330.320494538</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1229,6 +1224,31 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>På sälgved och sälgticka # Salix caprea</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>2301261149</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1245,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106194569</v>
+        <v>106194528</v>
       </c>
       <c r="B7" t="n">
-        <v>76487</v>
+        <v>55608</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,38 +1277,47 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1794</v>
+        <v>102612</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödskaftad svartspik</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenothecopsis haematopus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tibell</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540458.4132686888</v>
+        <v>540421.9978498913</v>
       </c>
       <c r="R7" t="n">
-        <v>7199330.320494538</v>
+        <v>7199131.588012774</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1320,7 +1349,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1330,7 +1359,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1341,31 +1370,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>På sälgved och sälgticka # Salix caprea</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>2301261149</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1382,10 +1386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106194540</v>
+        <v>106194529</v>
       </c>
       <c r="B8" t="n">
-        <v>73693</v>
+        <v>78570</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,21 +1402,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1426,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540471.7153629591</v>
+        <v>540414.6648215668</v>
       </c>
       <c r="R8" t="n">
-        <v>7198912.354880349</v>
+        <v>7199139.554680186</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1467,7 +1471,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1494,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106194528</v>
+        <v>106194522</v>
       </c>
       <c r="B9" t="n">
-        <v>55608</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,43 +1514,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102612</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540421.9978498913</v>
+        <v>540266.2979199347</v>
       </c>
       <c r="R9" t="n">
-        <v>7199131.588012774</v>
+        <v>7199331.549491068</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1578,7 +1573,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1588,7 +1583,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1615,10 +1610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106194536</v>
+        <v>106194520</v>
       </c>
       <c r="B10" t="n">
-        <v>76489</v>
+        <v>76504</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,25 +1622,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6000248</v>
+        <v>314</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kådsvartspik</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenothecopsis montana</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rikkinen</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1655,10 +1650,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540443.4200716898</v>
+        <v>540266.2693650301</v>
       </c>
       <c r="R10" t="n">
-        <v>7198930.227664446</v>
+        <v>7199333.671519079</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1690,7 +1685,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1700,7 +1695,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1727,7 +1722,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106194541</v>
+        <v>106194517</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1767,10 +1762,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540467.4483503525</v>
+        <v>540220.9713190208</v>
       </c>
       <c r="R11" t="n">
-        <v>7198913.570809621</v>
+        <v>7199288.915839214</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1802,7 +1797,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1812,7 +1807,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1839,10 +1834,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106194529</v>
+        <v>106194519</v>
       </c>
       <c r="B12" t="n">
-        <v>78570</v>
+        <v>78603</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1851,25 +1846,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2081</v>
+        <v>6464</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1879,10 +1874,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540414.6648215668</v>
+        <v>540217.9683172886</v>
       </c>
       <c r="R12" t="n">
-        <v>7199139.554680186</v>
+        <v>7199290.997918672</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1914,7 +1909,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1924,7 +1919,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,10 +1946,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106194522</v>
+        <v>106194521</v>
       </c>
       <c r="B13" t="n">
-        <v>81236</v>
+        <v>73693</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1967,21 +1962,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1312</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1991,10 +1986,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540266.2979199347</v>
+        <v>540266.2807869902</v>
       </c>
       <c r="R13" t="n">
-        <v>7199331.549491068</v>
+        <v>7199332.822708054</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2063,10 +2058,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106194520</v>
+        <v>106194527</v>
       </c>
       <c r="B14" t="n">
-        <v>76504</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2079,21 +2074,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>314</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2103,10 +2098,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>540266.2693650301</v>
+        <v>540458.3903157733</v>
       </c>
       <c r="R14" t="n">
-        <v>7199333.671519079</v>
+        <v>7199332.018118081</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2138,7 +2133,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2148,7 +2143,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2175,10 +2170,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106194517</v>
+        <v>106194537</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2191,34 +2186,39 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>540220.9713190208</v>
+        <v>540471.4570663463</v>
       </c>
       <c r="R15" t="n">
-        <v>7199288.915839214</v>
+        <v>7198931.455751203</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2287,10 +2287,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106194519</v>
+        <v>106194540</v>
       </c>
       <c r="B16" t="n">
-        <v>78603</v>
+        <v>73693</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2299,25 +2299,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6464</v>
+        <v>6440</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>540217.9683172886</v>
+        <v>540471.7153629591</v>
       </c>
       <c r="R16" t="n">
-        <v>7199290.997918672</v>
+        <v>7198912.354880349</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2399,10 +2399,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106194521</v>
+        <v>106194536</v>
       </c>
       <c r="B17" t="n">
-        <v>73693</v>
+        <v>76489</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2411,25 +2411,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6440</v>
+        <v>6000248</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mörk kådsvartspik</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis montana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Rikkinen</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>540266.2807869902</v>
+        <v>540443.4200716898</v>
       </c>
       <c r="R17" t="n">
-        <v>7199332.822708054</v>
+        <v>7198930.227664446</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2511,10 +2511,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106194539</v>
+        <v>106194541</v>
       </c>
       <c r="B18" t="n">
-        <v>76490</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2527,21 +2527,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540470.4519041032</v>
+        <v>540467.4483503525</v>
       </c>
       <c r="R18" t="n">
-        <v>7198911.488709519</v>
+        <v>7198913.570809621</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106194534</v>
+        <v>106194539</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>76490</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2639,21 +2639,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540443.3971279609</v>
+        <v>540470.4519041032</v>
       </c>
       <c r="R19" t="n">
-        <v>7198931.925514392</v>
+        <v>7198911.488709519</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2735,10 +2735,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106194538</v>
+        <v>106194534</v>
       </c>
       <c r="B20" t="n">
-        <v>73507</v>
+        <v>77506</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2747,25 +2747,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540471.5259453177</v>
+        <v>540443.3971279609</v>
       </c>
       <c r="R20" t="n">
-        <v>7198926.362197533</v>
+        <v>7198931.925514392</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2847,10 +2847,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106194527</v>
+        <v>106194538</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>73507</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2859,25 +2859,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540458.3903157733</v>
+        <v>540471.5259453177</v>
       </c>
       <c r="R21" t="n">
-        <v>7199332.018118081</v>
+        <v>7198926.362197533</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 3146-2023.xlsx
+++ b/artfynd/A 3146-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106194518</v>
+        <v>106194537</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>56411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +804,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540220.9713190208</v>
+        <v>540471.4570663463</v>
       </c>
       <c r="R3" t="n">
-        <v>7199288.915839214</v>
+        <v>7198931.455751203</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +872,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +882,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106194523</v>
+        <v>106194518</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +921,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540266.2807869902</v>
+        <v>540220.9713190208</v>
       </c>
       <c r="R4" t="n">
-        <v>7199332.822708054</v>
+        <v>7199288.915839214</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +984,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +994,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106194526</v>
+        <v>106194523</v>
       </c>
       <c r="B5" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1033,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540458.3903157733</v>
+        <v>540266.2807869902</v>
       </c>
       <c r="R5" t="n">
-        <v>7199332.018118081</v>
+        <v>7199332.822708054</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1096,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1106,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106194569</v>
+        <v>106194526</v>
       </c>
       <c r="B6" t="n">
-        <v>76487</v>
+        <v>78596</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1794</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödskaftad svartspik</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis haematopus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540458.4132686888</v>
+        <v>540458.3903157733</v>
       </c>
       <c r="R6" t="n">
-        <v>7199330.320494538</v>
+        <v>7199332.018118081</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>11:49</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1224,31 +1229,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>På sälgved och sälgticka # Salix caprea</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>2301261149</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1265,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106194528</v>
+        <v>106194569</v>
       </c>
       <c r="B7" t="n">
-        <v>55608</v>
+        <v>76487</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,47 +1257,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>102612</v>
+        <v>1794</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Rödskaftad svartspik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Chaenothecopsis haematopus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540421.9978498913</v>
+        <v>540458.4132686888</v>
       </c>
       <c r="R7" t="n">
-        <v>7199131.588012774</v>
+        <v>7199330.320494538</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1349,7 +1320,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1359,7 +1330,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:49</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,6 +1341,31 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>På sälgved och sälgticka # Salix caprea</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>2301261149</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1386,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106194529</v>
+        <v>106194540</v>
       </c>
       <c r="B8" t="n">
-        <v>78570</v>
+        <v>73693</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1402,21 +1398,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1426,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540414.6648215668</v>
+        <v>540471.7153629591</v>
       </c>
       <c r="R8" t="n">
-        <v>7199139.554680186</v>
+        <v>7198912.354880349</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1461,7 +1457,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1471,7 +1467,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1498,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106194522</v>
+        <v>106194528</v>
       </c>
       <c r="B9" t="n">
-        <v>81236</v>
+        <v>55608</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,34 +1510,43 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>102612</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540266.2979199347</v>
+        <v>540421.9978498913</v>
       </c>
       <c r="R9" t="n">
-        <v>7199331.549491068</v>
+        <v>7199131.588012774</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1573,7 +1578,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1583,7 +1588,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106194520</v>
+        <v>106194536</v>
       </c>
       <c r="B10" t="n">
-        <v>76504</v>
+        <v>76489</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>314</v>
+        <v>6000248</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitskaftad svartspik</t>
+          <t>Mörk kådsvartspik</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenothecopsis viridialba</t>
+          <t>Chaenothecopsis montana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Kremp.) A.F.W.Schmidt</t>
+          <t>Rikkinen</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1650,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540266.2693650301</v>
+        <v>540443.4200716898</v>
       </c>
       <c r="R10" t="n">
-        <v>7199333.671519079</v>
+        <v>7198930.227664446</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1685,7 +1690,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1695,7 +1700,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1722,7 +1727,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106194517</v>
+        <v>106194541</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -1762,10 +1767,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540220.9713190208</v>
+        <v>540467.4483503525</v>
       </c>
       <c r="R11" t="n">
-        <v>7199288.915839214</v>
+        <v>7198913.570809621</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1797,7 +1802,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1807,7 +1812,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1834,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106194519</v>
+        <v>106194529</v>
       </c>
       <c r="B12" t="n">
-        <v>78603</v>
+        <v>78570</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1846,25 +1851,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6464</v>
+        <v>2081</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1874,10 +1879,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540217.9683172886</v>
+        <v>540414.6648215668</v>
       </c>
       <c r="R12" t="n">
-        <v>7199290.997918672</v>
+        <v>7199139.554680186</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1909,7 +1914,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1919,7 +1924,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:25</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1946,10 +1951,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106194521</v>
+        <v>106194522</v>
       </c>
       <c r="B13" t="n">
-        <v>73693</v>
+        <v>81236</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1962,21 +1967,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>1312</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1986,10 +1991,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540266.2807869902</v>
+        <v>540266.2979199347</v>
       </c>
       <c r="R13" t="n">
-        <v>7199332.822708054</v>
+        <v>7199331.549491068</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2058,10 +2063,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106194527</v>
+        <v>106194520</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>76504</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2074,21 +2079,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>314</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitskaftad svartspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis viridialba</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Kremp.) A.F.W.Schmidt</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2098,10 +2103,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>540458.3903157733</v>
+        <v>540266.2693650301</v>
       </c>
       <c r="R14" t="n">
-        <v>7199332.018118081</v>
+        <v>7199333.671519079</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2143,7 +2148,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2170,10 +2175,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106194537</v>
+        <v>106194517</v>
       </c>
       <c r="B15" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2186,39 +2191,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Gäddbäcksberget, Ås lm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>540471.4570663463</v>
+        <v>540220.9713190208</v>
       </c>
       <c r="R15" t="n">
-        <v>7198931.455751203</v>
+        <v>7199288.915839214</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2287,10 +2287,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106194540</v>
+        <v>106194519</v>
       </c>
       <c r="B16" t="n">
-        <v>73693</v>
+        <v>78603</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2299,25 +2299,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6440</v>
+        <v>6464</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>540471.7153629591</v>
+        <v>540217.9683172886</v>
       </c>
       <c r="R16" t="n">
-        <v>7198912.354880349</v>
+        <v>7199290.997918672</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>12:25</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2399,10 +2399,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106194536</v>
+        <v>106194521</v>
       </c>
       <c r="B17" t="n">
-        <v>76489</v>
+        <v>73693</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2411,25 +2411,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6000248</v>
+        <v>6440</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kådsvartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenothecopsis montana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rikkinen</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>540443.4200716898</v>
+        <v>540266.2807869902</v>
       </c>
       <c r="R17" t="n">
-        <v>7198930.227664446</v>
+        <v>7199332.822708054</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2511,10 +2511,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106194541</v>
+        <v>106194539</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>76490</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2527,21 +2527,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540467.4483503525</v>
+        <v>540470.4519041032</v>
       </c>
       <c r="R18" t="n">
-        <v>7198913.570809621</v>
+        <v>7198911.488709519</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106194539</v>
+        <v>106194534</v>
       </c>
       <c r="B19" t="n">
-        <v>76490</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2639,21 +2639,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540470.4519041032</v>
+        <v>540443.3971279609</v>
       </c>
       <c r="R19" t="n">
-        <v>7198911.488709519</v>
+        <v>7198931.925514392</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2735,10 +2735,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106194534</v>
+        <v>106194538</v>
       </c>
       <c r="B20" t="n">
-        <v>77506</v>
+        <v>73507</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2747,25 +2747,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6428</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540443.3971279609</v>
+        <v>540471.5259453177</v>
       </c>
       <c r="R20" t="n">
-        <v>7198931.925514392</v>
+        <v>7198926.362197533</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>11:04</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2847,10 +2847,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106194538</v>
+        <v>106194527</v>
       </c>
       <c r="B21" t="n">
-        <v>73507</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2859,25 +2859,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6428</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540471.5259453177</v>
+        <v>540458.3903157733</v>
       </c>
       <c r="R21" t="n">
-        <v>7198926.362197533</v>
+        <v>7199332.018118081</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD21" t="b">
